--- a/data/trans_orig/P6515-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D70158-BA8A-4074-A1E7-DECF804693BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E7A117B-3180-41EE-97FA-3D3F653B0AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A0BBA8D-EB78-46A3-B582-CFF3B17B3A55}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A4AD969-A448-49AF-9069-1E5724A595ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="241">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>71,37%</t>
   </si>
   <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>81,07%</t>
   </si>
   <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,652 +104,658 @@
     <t>18,11%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>1,2%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>9,15%</t>
+    <t>9,08%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1164,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D09A07-764C-46E6-A205-625E7008CC48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1648F7-5E70-4CBA-82C7-CCCA2E7362DC}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1423,16 +1429,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
@@ -1441,13 +1447,13 @@
         <v>11311</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -1456,13 +1462,13 @@
         <v>3969</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -1471,13 +1477,13 @@
         <v>15280</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,13 +1498,13 @@
         <v>176571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>142</v>
@@ -1507,13 +1513,13 @@
         <v>140736</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>313</v>
@@ -1522,18 +1528,18 @@
         <v>317306</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1545,13 +1551,13 @@
         <v>345743</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>301</v>
@@ -1560,13 +1566,13 @@
         <v>318598</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>625</v>
@@ -1575,13 +1581,13 @@
         <v>664342</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,13 +1602,13 @@
         <v>73254</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1611,13 +1617,13 @@
         <v>6940</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -1626,13 +1632,13 @@
         <v>80194</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1653,13 @@
         <v>48698</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1662,13 +1668,13 @@
         <v>4017</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -1677,19 +1683,19 @@
         <v>52715</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>82</v>
@@ -1698,13 +1704,13 @@
         <v>86175</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -1713,13 +1719,13 @@
         <v>10941</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -1728,13 +1734,13 @@
         <v>97116</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,13 +1755,13 @@
         <v>553870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>322</v>
@@ -1764,13 +1770,13 @@
         <v>340496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>847</v>
@@ -1779,18 +1785,18 @@
         <v>894366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1802,13 +1808,13 @@
         <v>361582</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -1817,13 +1823,13 @@
         <v>280315</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>612</v>
@@ -1832,13 +1838,13 @@
         <v>641897</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,13 +1859,13 @@
         <v>82477</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -1868,13 +1874,13 @@
         <v>9881</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>89</v>
@@ -1883,13 +1889,13 @@
         <v>92359</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1910,13 @@
         <v>35569</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1919,13 +1925,13 @@
         <v>7951</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -1934,19 +1940,19 @@
         <v>43520</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>83</v>
@@ -1955,13 +1961,13 @@
         <v>85988</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1970,13 +1976,13 @@
         <v>6399</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -1985,13 +1991,13 @@
         <v>92388</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,13 +2012,13 @@
         <v>565617</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>287</v>
@@ -2021,13 +2027,13 @@
         <v>304547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>834</v>
@@ -2036,18 +2042,18 @@
         <v>870164</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2059,13 +2065,13 @@
         <v>277798</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
@@ -2074,13 +2080,13 @@
         <v>152887</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>407</v>
@@ -2089,13 +2095,13 @@
         <v>430686</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2116,13 @@
         <v>67274</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2125,13 +2131,13 @@
         <v>6761</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -2140,13 +2146,13 @@
         <v>74035</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2167,13 @@
         <v>35029</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2176,7 +2182,7 @@
         <v>5081</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>144</v>
@@ -2203,7 +2209,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>53</v>
@@ -2263,13 +2269,13 @@
         <v>435334</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -2278,13 +2284,13 @@
         <v>169733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>567</v>
@@ -2293,13 +2299,13 @@
         <v>605068</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,19 +2454,19 @@
         <v>19321</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>19</v>
@@ -2469,13 +2475,13 @@
         <v>17929</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2484,13 +2490,13 @@
         <v>1043</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>20</v>
@@ -2499,13 +2505,13 @@
         <v>18971</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2526,13 @@
         <v>162523</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -2535,13 +2541,13 @@
         <v>64284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>227</v>
@@ -2550,18 +2556,18 @@
         <v>226807</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2573,10 +2579,10 @@
         <v>4063</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>164</v>
@@ -2591,10 +2597,10 @@
         <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2603,10 +2609,10 @@
         <v>7684</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>164</v>
@@ -2630,7 +2636,7 @@
         <v>179</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2645,7 +2651,7 @@
         <v>179</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2660,7 +2666,7 @@
         <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,7 +2687,7 @@
         <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2696,7 +2702,7 @@
         <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2711,13 +2717,13 @@
         <v>179</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2726,13 +2732,13 @@
         <v>975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2747,7 +2753,7 @@
         <v>179</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2756,13 +2762,13 @@
         <v>975</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2783,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2792,13 +2798,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2807,13 +2813,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2836,13 @@
         <v>1224310</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H34" s="7">
         <v>907</v>
@@ -2845,13 +2851,13 @@
         <v>948825</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M34" s="7">
         <v>2074</v>
@@ -2860,13 +2866,13 @@
         <v>2173135</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2887,13 @@
         <v>271153</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
@@ -2896,13 +2902,13 @@
         <v>29248</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M35" s="7">
         <v>289</v>
@@ -2911,13 +2917,13 @@
         <v>300401</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2938,13 @@
         <v>145880</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -2947,13 +2953,13 @@
         <v>17987</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M36" s="7">
         <v>160</v>
@@ -2962,19 +2968,19 @@
         <v>163867</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>249</v>
@@ -2983,13 +2989,13 @@
         <v>257611</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>25</v>
@@ -2998,13 +3004,13 @@
         <v>27356</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>274</v>
@@ -3013,13 +3019,13 @@
         <v>284967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3040,13 @@
         <v>1898953</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>979</v>
@@ -3049,33 +3055,33 @@
         <v>1023416</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>2797</v>
       </c>
       <c r="N38" s="7">
-        <v>2922369</v>
+        <v>2922370</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6515-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E7A117B-3180-41EE-97FA-3D3F653B0AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0187DBE-994C-4D1B-88E5-D71AB2712E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A4AD969-A448-49AF-9069-1E5724A595ED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12254049-4AC7-4D2B-B6FF-ED24D8AB90C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="240">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>71,37%</t>
   </si>
   <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>81,07%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,412 +104,418 @@
     <t>18,11%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
+    <t>12,66%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -518,16 +524,16 @@
     <t>67,13%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>88,64%</t>
+    <t>88,62%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -536,43 +542,40 @@
     <t>75,52%</t>
   </si>
   <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>0%</t>
@@ -584,34 +587,31 @@
     <t>8,52%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -620,7 +620,7 @@
     <t>80,65%</t>
   </si>
   <si>
-    <t>28,99%</t>
+    <t>25,9%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -629,7 +629,7 @@
     <t>88,74%</t>
   </si>
   <si>
-    <t>51,96%</t>
+    <t>53,55%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -644,118 +644,115 @@
     <t>19,35%</t>
   </si>
   <si>
-    <t>71,01%</t>
+    <t>74,1%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>48,04%</t>
+    <t>46,45%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1170,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1648F7-5E70-4CBA-82C7-CCCA2E7362DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEA01E-CE5A-424C-843E-9184CBC726D4}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1306,7 +1303,7 @@
         <v>132</v>
       </c>
       <c r="I4" s="7">
-        <v>131225</v>
+        <v>131224</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1429,16 +1426,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
@@ -1447,13 +1444,13 @@
         <v>11311</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -1462,13 +1459,13 @@
         <v>3969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -1477,13 +1474,13 @@
         <v>15280</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,28 +1495,28 @@
         <v>176571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>142</v>
       </c>
       <c r="I8" s="7">
-        <v>140736</v>
+        <v>140735</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>313</v>
@@ -1528,18 +1525,18 @@
         <v>317306</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1551,13 +1548,13 @@
         <v>345743</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>301</v>
@@ -1566,13 +1563,13 @@
         <v>318598</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>625</v>
@@ -1581,13 +1578,13 @@
         <v>664342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,13 +1599,13 @@
         <v>73254</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1617,13 +1614,13 @@
         <v>6940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -1632,13 +1629,13 @@
         <v>80194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1650,13 @@
         <v>48698</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1668,13 +1665,13 @@
         <v>4017</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -1683,19 +1680,19 @@
         <v>52715</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>82</v>
@@ -1704,13 +1701,13 @@
         <v>86175</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -1719,13 +1716,13 @@
         <v>10941</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -1734,13 +1731,13 @@
         <v>97116</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1752,13 @@
         <v>553870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>322</v>
@@ -1770,13 +1767,13 @@
         <v>340496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>847</v>
@@ -1785,18 +1782,18 @@
         <v>894366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1808,13 +1805,13 @@
         <v>361582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -1823,13 +1820,13 @@
         <v>280315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>612</v>
@@ -1838,13 +1835,13 @@
         <v>641897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,13 +1856,13 @@
         <v>82477</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -1874,13 +1871,13 @@
         <v>9881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>89</v>
@@ -1889,13 +1886,13 @@
         <v>92359</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,13 +1907,13 @@
         <v>35569</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1925,13 +1922,13 @@
         <v>7951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -1940,19 +1937,19 @@
         <v>43520</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>83</v>
@@ -1961,13 +1958,13 @@
         <v>85988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1976,13 +1973,13 @@
         <v>6399</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -1991,13 +1988,13 @@
         <v>92388</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2009,13 @@
         <v>565617</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>287</v>
@@ -2027,13 +2024,13 @@
         <v>304547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>834</v>
@@ -2042,18 +2039,18 @@
         <v>870164</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2065,13 +2062,13 @@
         <v>277798</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
@@ -2080,13 +2077,13 @@
         <v>152887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>407</v>
@@ -2095,13 +2092,13 @@
         <v>430686</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2113,13 @@
         <v>67274</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2131,13 +2128,13 @@
         <v>6761</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -2146,13 +2143,13 @@
         <v>74035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2164,13 @@
         <v>35029</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2182,13 +2179,13 @@
         <v>5081</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -2197,19 +2194,19 @@
         <v>40110</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>53</v>
@@ -2218,13 +2215,13 @@
         <v>55233</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2233,13 +2230,13 @@
         <v>5004</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -2248,13 +2245,13 @@
         <v>60237</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2266,13 @@
         <v>435334</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -2284,13 +2281,13 @@
         <v>169733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>567</v>
@@ -2299,18 +2296,18 @@
         <v>605068</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2322,13 +2319,13 @@
         <v>109103</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>60</v>
@@ -2337,13 +2334,13 @@
         <v>62179</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>169</v>
@@ -2352,13 +2349,13 @@
         <v>171282</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2370,13 @@
         <v>16170</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2388,13 +2385,13 @@
         <v>1062</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2403,13 +2400,13 @@
         <v>17233</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2421,13 @@
         <v>19321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2442,10 +2439,10 @@
         <v>35</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -2454,19 +2451,19 @@
         <v>19321</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>19</v>
@@ -2475,13 +2472,13 @@
         <v>17929</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2490,13 +2487,13 @@
         <v>1043</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="M27" s="7">
         <v>20</v>
@@ -2526,13 +2523,13 @@
         <v>162523</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -2541,13 +2538,13 @@
         <v>64284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>227</v>
@@ -2556,13 +2553,13 @@
         <v>226807</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2582,7 @@
         <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2594,13 +2591,13 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2615,7 +2612,7 @@
         <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,7 +2630,7 @@
         <v>35</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>198</v>
@@ -2648,7 +2645,7 @@
         <v>35</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>199</v>
@@ -2663,7 +2660,7 @@
         <v>35</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>200</v>
@@ -2684,7 +2681,7 @@
         <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>198</v>
@@ -2699,7 +2696,7 @@
         <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>199</v>
@@ -2714,7 +2711,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>200</v>
@@ -2723,7 +2720,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2750,7 +2747,7 @@
         <v>35</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>199</v>
@@ -2783,13 +2780,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2798,13 +2795,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2813,13 +2810,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2935,13 @@
         <v>145880</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -2953,13 +2950,13 @@
         <v>17987</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M36" s="7">
         <v>160</v>
@@ -2968,19 +2965,19 @@
         <v>163867</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>249</v>
@@ -2989,13 +2986,13 @@
         <v>257611</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>25</v>
@@ -3004,13 +3001,13 @@
         <v>27356</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>274</v>
@@ -3019,13 +3016,13 @@
         <v>284967</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3037,13 @@
         <v>1898953</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>979</v>
@@ -3055,33 +3052,33 @@
         <v>1023416</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>2797</v>
       </c>
       <c r="N38" s="7">
-        <v>2922370</v>
+        <v>2922369</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6515-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0187DBE-994C-4D1B-88E5-D71AB2712E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E41C0D-F93A-4171-9D48-E48061F5C391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12254049-4AC7-4D2B-B6FF-ED24D8AB90C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E45ABB60-345A-4647-893B-5388DA5F7A43}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="239">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>71,37%</t>
   </si>
   <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>81,07%</t>
   </si>
   <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,655 +104,652 @@
     <t>18,11%</t>
   </si>
   <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>9,15%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1167,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEA01E-CE5A-424C-843E-9184CBC726D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAF9401-9FAD-40FC-8F60-7A2DC47991DF}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1303,7 +1300,7 @@
         <v>132</v>
       </c>
       <c r="I4" s="7">
-        <v>131224</v>
+        <v>131225</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1507,7 +1504,7 @@
         <v>142</v>
       </c>
       <c r="I8" s="7">
-        <v>140735</v>
+        <v>140736</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1871,10 +1868,10 @@
         <v>9881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>102</v>
@@ -1979,7 +1976,7 @@
         <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -1988,13 +1985,13 @@
         <v>92388</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,7 +2047,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2062,13 +2059,13 @@
         <v>277798</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
@@ -2077,13 +2074,13 @@
         <v>152887</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>407</v>
@@ -2092,13 +2089,13 @@
         <v>430686</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2110,13 @@
         <v>67274</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2128,13 +2125,13 @@
         <v>6761</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -2143,13 +2140,13 @@
         <v>74035</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,13 +2161,13 @@
         <v>35029</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2179,13 +2176,13 @@
         <v>5081</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -2194,13 +2191,13 @@
         <v>40110</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +2212,13 @@
         <v>55233</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2230,13 +2227,13 @@
         <v>5004</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -2245,13 +2242,13 @@
         <v>60237</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,7 +2304,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2319,13 +2316,13 @@
         <v>109103</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>60</v>
@@ -2334,13 +2331,13 @@
         <v>62179</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>169</v>
@@ -2349,13 +2346,13 @@
         <v>171282</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2367,13 @@
         <v>16170</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2385,13 +2382,13 @@
         <v>1062</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2400,13 +2397,13 @@
         <v>17233</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2418,13 @@
         <v>19321</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2439,10 +2436,10 @@
         <v>35</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -2451,13 +2448,13 @@
         <v>19321</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,13 +2469,13 @@
         <v>17929</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2487,13 +2484,13 @@
         <v>1043</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>20</v>
@@ -2502,13 +2499,13 @@
         <v>18971</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,7 +2561,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2576,13 +2573,13 @@
         <v>4063</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2591,10 +2588,10 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -2606,13 +2603,13 @@
         <v>7684</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,10 +2627,10 @@
         <v>35</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2645,10 +2642,10 @@
         <v>35</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2660,10 +2657,10 @@
         <v>35</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,10 +2678,10 @@
         <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2696,10 +2693,10 @@
         <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2711,10 +2708,10 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2726,13 @@
         <v>975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2747,10 +2744,10 @@
         <v>35</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2759,13 +2756,13 @@
         <v>975</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2830,13 @@
         <v>1224310</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H34" s="7">
         <v>907</v>
@@ -2848,13 +2845,13 @@
         <v>948825</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M34" s="7">
         <v>2074</v>
@@ -2863,13 +2860,13 @@
         <v>2173135</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2881,13 @@
         <v>271153</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
@@ -2899,13 +2896,13 @@
         <v>29248</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M35" s="7">
         <v>289</v>
@@ -2914,13 +2911,13 @@
         <v>300401</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2932,13 @@
         <v>145880</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -2950,13 +2947,13 @@
         <v>17987</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M36" s="7">
         <v>160</v>
@@ -2965,13 +2962,13 @@
         <v>163867</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2983,13 @@
         <v>257611</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H37" s="7">
         <v>25</v>
@@ -3001,13 +2998,13 @@
         <v>27356</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M37" s="7">
         <v>274</v>
@@ -3016,13 +3013,13 @@
         <v>284967</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,7 +3075,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6515-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E41C0D-F93A-4171-9D48-E48061F5C391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8BF21A6-BECB-405C-87CE-1ED0C854F1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E45ABB60-345A-4647-893B-5388DA5F7A43}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B10BB184-C314-4E17-A945-1716027991E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="241">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>62,42%</t>
@@ -302,7 +302,7 @@
     <t>13,26%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>63,93%</t>
@@ -407,7 +407,7 @@
     <t>13,09%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>63,81%</t>
@@ -512,7 +512,7 @@
     <t>12,55%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>67,13%</t>
@@ -608,43 +608,49 @@
     <t>12,81%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>64,47%</t>
@@ -1164,8 +1170,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAF9401-9FAD-40FC-8F60-7A2DC47991DF}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE611DAB-D5B2-4A89-8EAB-1F0524DA2E94}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1300,7 +1306,7 @@
         <v>132</v>
       </c>
       <c r="I4" s="7">
-        <v>131225</v>
+        <v>131224</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1504,7 +1510,7 @@
         <v>142</v>
       </c>
       <c r="I8" s="7">
-        <v>140736</v>
+        <v>140735</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -2567,16 +2573,16 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>4063</v>
+        <v>1593</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>164</v>
@@ -2591,22 +2597,22 @@
         <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5</v>
+      </c>
+      <c r="N29" s="7">
+        <v>5213</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="7">
-        <v>8</v>
-      </c>
-      <c r="N29" s="7">
-        <v>7684</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>164</v>
@@ -2630,7 +2636,7 @@
         <v>179</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2645,7 +2651,7 @@
         <v>179</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2660,7 +2666,7 @@
         <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,7 +2687,7 @@
         <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2696,7 +2702,7 @@
         <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2711,7 +2717,7 @@
         <v>179</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2732,13 @@
         <v>975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2747,7 +2753,7 @@
         <v>179</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2756,13 +2762,13 @@
         <v>975</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,10 +2777,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2801,10 +2807,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2818,55 +2824,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1167</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>1224310</v>
+        <v>2471</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H34" s="7">
-        <v>907</v>
-      </c>
-      <c r="I34" s="7">
-        <v>948825</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="K34" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
-        <v>2074</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>2173135</v>
+        <v>2471</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>211</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,49 +2879,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>271153</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H35" s="7">
-        <v>29</v>
-      </c>
-      <c r="I35" s="7">
-        <v>29248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>300401</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,49 +2928,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>145880</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="H36" s="7">
-        <v>18</v>
-      </c>
-      <c r="I36" s="7">
-        <v>17987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="M36" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>163867</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +2977,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>257611</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="H37" s="7">
-        <v>25</v>
-      </c>
-      <c r="I37" s="7">
-        <v>27356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="M37" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>284967</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,63 +3026,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1167</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1224310</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H39" s="7">
+        <v>907</v>
+      </c>
+      <c r="I39" s="7">
+        <v>948825</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2074</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2173135</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>260</v>
+      </c>
+      <c r="D40" s="7">
+        <v>271153</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="7">
+        <v>29</v>
+      </c>
+      <c r="I40" s="7">
+        <v>29248</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M40" s="7">
+        <v>289</v>
+      </c>
+      <c r="N40" s="7">
+        <v>300401</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>142</v>
+      </c>
+      <c r="D41" s="7">
+        <v>145880</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H41" s="7">
+        <v>18</v>
+      </c>
+      <c r="I41" s="7">
+        <v>17987</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M41" s="7">
+        <v>160</v>
+      </c>
+      <c r="N41" s="7">
+        <v>163867</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>249</v>
+      </c>
+      <c r="D42" s="7">
+        <v>257611</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="7">
+        <v>25</v>
+      </c>
+      <c r="I42" s="7">
+        <v>27356</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M42" s="7">
+        <v>274</v>
+      </c>
+      <c r="N42" s="7">
+        <v>284967</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1818</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1898953</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>979</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1023416</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2797</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2922369</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>238</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
